--- a/test_data/cai/record_transaction_data.xlsx
+++ b/test_data/cai/record_transaction_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="840" windowWidth="24960" windowHeight="14040" tabRatio="500"/>
+    <workbookView xWindow="580" yWindow="1180" windowWidth="24960" windowHeight="14040" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记所有类别收入" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="120">
   <si>
     <t>记支出</t>
     <rPh sb="0" eb="1">
@@ -100,10 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>归还临时资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>归还临时借入</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -113,10 +109,6 @@
   </si>
   <si>
     <t>归还银行贷款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付工资奖金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -188,16 +180,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贷款利息</t>
-    <rPh sb="0" eb="1">
-      <t>dai kuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li xi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>微信</t>
     <rPh sb="0" eb="1">
       <t>wei x</t>
@@ -226,20 +208,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>支付宝</t>
-    <rPh sb="0" eb="1">
-      <t>zhi fu bao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行</t>
-    <rPh sb="0" eb="1">
-      <t>yin h</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>100.11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -268,79 +236,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>901.07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>800.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1101.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1201.43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1301.55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1401.67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1501.79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1601.91</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1702.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1802.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1902.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002.39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2102.51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2202.63</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2302.75</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2402.87</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2502.99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2603.11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,22 +345,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1234</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4567</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7900</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11233</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>转出账户2</t>
     <rPh sb="0" eb="1">
       <t>zhuan c</t>
@@ -513,7 +393,932 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>beizhu</t>
+    <t>901.07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201.43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301.55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1401.67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1501.79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1601.91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1702.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1802.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1902.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002.39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2102.51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2202.63</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2302.75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2402.87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2502.99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2603.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，回收借出资金（收入），微信100221-临时借出资金12210101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shor uu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zi j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，利息收入，银行100201-利息费用560301</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shoou ru</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>li xi fei yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，收到临时借入款（收入），支付宝100211-22410101临时借入款</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie ru kuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>jie ru k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，收回投资利息（收入），现金100101-投资收益511101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou zi li x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>to zi shou yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，收回投资本金（收入），银行100201-151101投资收益</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tou zi ben j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ben jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yin h</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>tou zi shou y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，收到投资款，微信100221-股东名称300101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou zi k</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gu dong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，银行贷款（收入），支付宝100211-200101银行贷款</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dai k</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dai k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应收账款，现金100101-单位112201</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying hsou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhang k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dan wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，银行费用，手续费用560302-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shou xu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yin h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时借出资金</t>
+    <rPh sb="0" eb="1">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，临时借出资金，临时借出资金12210101-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，归还临时借入，临时借入款22410101-支付宝100211</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui huan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie ru</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jie ru k</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zhi fu b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，对外投资款，某某公司151101-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui wai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou zi k</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mou mou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，归还银行贷款，银行贷款200101-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui huan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dai k</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dai k</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付工资奖金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，贷款利息，利息费用560301-支付宝100211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应付工资奖金，工资奖金221101-微信100221</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应付社保费，应付社保22410103-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she bao f</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying fu she bao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应付公积金，应付公积金22410104-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong ji j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ying fu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gong ji jin</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应付劳务费，单位22410101-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lao wu f</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应交增值税，应交增值税222101-支付宝100211</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying jiao zeng zhi s</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhi fu b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应交城建设，应交城市维护建设税222108－现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng jian s</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying jiao cheng shi wei hu jian she shui</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应交教育附加，教育附加税222113-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao yu fu jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiao yu fu jia shui</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应交地方教育附加，地方教育费附加222114-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di fang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao yu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>di fang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jiao yu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fu jia</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应交个税，应交个人所得税222112-支付宝100211</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ge shui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ge ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>suo de s</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi fu b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应交印花税，应交印花税222118-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin hua s</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yin hua s</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应交所得税，应交所得税222106-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>suo de s</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>suo de s</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应付账款，单位220201-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>qi t</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying fu zhang kuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，银行到现金，现金100101-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>hu hzuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yin h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，银行到支付宝，支付宝100211-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>hu z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yin h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，银行到微信，微信100221－银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>hu z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yin h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，支付宝到银行，银行100201-支付宝100211</t>
+    <rPh sb="0" eb="1">
+      <t>hu zh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi fu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，支付宝到现金，银行100201-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，支付宝到微信，银行100201-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，微信到银行，银行100201－微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，微信到支付宝，支付宝100211-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，微信到现金，现金100101-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，现金到银行，银行100201-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yin h</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，现金到微信，微信1002210现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，现金到支付宝，支付宝100211-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian j</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,6 +1326,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -588,13 +1396,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -874,8 +1685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,45 +1697,45 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="69.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -936,47 +1747,50 @@
         <v>3</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="G3" t="s">
+        <v>79</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -985,41 +1799,47 @@
         <v>5</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="G4" t="s">
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>82</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1031,44 +1851,50 @@
         <v>7</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
       </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>8</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
+        <v>84</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -1077,33 +1903,39 @@
         <v>9</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>38</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
         <v>27</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
@@ -1120,7 +1952,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,46 +1962,47 @@
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="21" style="8" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1181,99 +2014,111 @@
         <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>61</v>
+      </c>
+      <c r="G2" t="s">
+        <v>87</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>89</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>47</v>
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>90</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>64</v>
+      </c>
+      <c r="G5" t="s">
+        <v>91</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
@@ -1282,102 +2127,114 @@
         <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>65</v>
+      </c>
+      <c r="G6" t="s">
+        <v>92</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>93</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>50</v>
+      <c r="G7" t="s">
+        <v>95</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>94</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>67</v>
+      </c>
+      <c r="G8" t="s">
+        <v>96</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>52</v>
+        <v>68</v>
+      </c>
+      <c r="G9" t="s">
+        <v>97</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -1386,102 +2243,114 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>69</v>
+      </c>
+      <c r="G10" t="s">
+        <v>98</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="G11" t="s">
+        <v>99</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="G12" t="s">
+        <v>100</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>72</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
@@ -1490,102 +2359,114 @@
         <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>74</v>
+      </c>
+      <c r="G15" t="s">
+        <v>103</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>75</v>
+      </c>
+      <c r="G16" t="s">
+        <v>104</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>60</v>
+        <v>76</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
@@ -1594,42 +2475,48 @@
         <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>62</v>
+        <v>78</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1640,123 +2527,356 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="10.83203125" style="8"/>
+    <col min="6" max="6" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>30</v>
+      </c>
+      <c r="E2" s="6">
+        <v>2703.23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>108</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="6">
+        <v>2803.35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>109</v>
+      </c>
+      <c r="G3" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" t="s">
         <v>31</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="G3" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>28</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2903.47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>110</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3003.59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>111</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>54</v>
+      </c>
+      <c r="H5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3103.71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>113</v>
+      </c>
+      <c r="G6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3203.83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="6">
+        <v>3303.95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="6">
+        <v>3404.07</v>
+      </c>
+      <c r="F9" t="s">
+        <v>115</v>
+      </c>
+      <c r="G9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="6">
+        <v>3504.19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>54</v>
+      </c>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3604.31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>54</v>
+      </c>
+      <c r="H11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3704.43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>118</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E13" s="6">
+        <v>3804.55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>54</v>
+      </c>
+      <c r="H13" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/record_transaction_data.xlsx
+++ b/test_data/cai/record_transaction_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="260" yWindow="840" windowWidth="24960" windowHeight="14040" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记所有类别收入" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="记互转" sheetId="2" r:id="rId3"/>
     <sheet name="201709测试数据－收支" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="128">
   <si>
     <t>记支出</t>
     <rPh sb="0" eb="1">
@@ -49,10 +49,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>(个)内部代表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>利息收入</t>
     <rPh sb="0" eb="1">
       <t>li xi</t>
@@ -73,94 +69,6 @@
     <rPh sb="7" eb="8">
       <t>shou ru</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到临时借入款(收入)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回投资利息(收入)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收回投资本金(收入)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>收到投资款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行贷款(收入)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行费用</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>归还临时资金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>归还临时借入</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>对外投资款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>归还银行贷款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付工资奖金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付社保费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付公积金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付劳务费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应交增值税</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应交城建税</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应交教育附加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应交地方教育附加</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应交个税</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应交印花税</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应交所得税</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>应付账款</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -188,16 +96,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>贷款利息</t>
-    <rPh sb="0" eb="1">
-      <t>dai kuan</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>li xi</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>微信</t>
     <rPh sb="0" eb="1">
       <t>wei x</t>
@@ -223,152 +121,6 @@
     <rPh sb="0" eb="1">
       <t>cheng g</t>
     </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付宝</t>
-    <rPh sb="0" eb="1">
-      <t>zhi fu bao</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>银行</t>
-    <rPh sb="0" eb="1">
-      <t>yin h</t>
-    </rPh>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>100.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>200.23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>300.35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>400.47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>500.59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>600.71</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>700.83</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>901.07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1001.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1101.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1201.43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1301.55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1401.67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1501.79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1601.91</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1702.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1802.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1902.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2002.39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2102.51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2202.63</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2302.75</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2402.87</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2502.99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2603.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Income</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>income</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outcome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>outcome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Outcome</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>record_type0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>record_name1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,22 +201,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1234</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4567</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7900</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>11233</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>转出账户2</t>
     <rPh sb="0" eb="1">
       <t>zhuan c</t>
@@ -513,7 +249,1108 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>beizhu</t>
+    <t>record_type0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_name1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(个)内部代表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>100.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，利息收入，银行100201-利息费用560301</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>li xi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>shoou ru</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>li xi fei yong</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>200.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，回收借出资金（收入），微信100221-临时借出资金12210101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>hui shou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shor uu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>zi j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到临时借入款(收入)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300.35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，收到临时借入款（收入），支付宝100211-22410101临时借入款</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie ru kuan</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="35" eb="36">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>jie ru k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回投资利息(收入)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>400.47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，收回投资利息（收入），现金100101-投资收益511101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou hui</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou zi li x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>to zi shou yi</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收回投资本金(收入)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>500.59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，收回投资本金（收入），银行100201-151101投资收益</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shou hui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>tou zi ben j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ben jin</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yin h</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>tou zi shou y</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>收到投资款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>600.71</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，收到投资款，微信100221-股东名称300101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>shou dao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou zi k</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>gu dong</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ming c</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行贷款(收入)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>700.83</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，银行贷款（收入），支付宝100211-200101银行贷款</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>dai k</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shou ru</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="32" eb="33">
+      <t>dai k</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应收账款，现金100101-单位112201</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying hsou</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>zhang k</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>dan wei</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_type0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_name1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Outcome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>outcome</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>(个)内部代表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>银行费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>901.07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，银行费用，手续费用560302-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>shou xu</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>fei y</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>yin h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>临时借出资金</t>
+    <rPh sb="0" eb="1">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>zi j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1001.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，临时借出资金，临时借出资金12210101-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jie chu</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>zi jin</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归还临时借入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，归还临时借入，临时借入款22410101-支付宝100211</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui huan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>jie ru</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>lin shi</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jie ru k</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>zhi fu b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>对外投资款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1201.43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，对外投资款，某某公司151101-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>dui wai</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tou zi k</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>mou mou</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>gong si</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>归还银行贷款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1301.55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，归还银行贷款，银行贷款200101-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>gui huan</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dai k</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>dai k</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>贷款利息</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1401.67</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，贷款利息，利息费用560301-支付宝100211</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付工资奖金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1501.79</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应付工资奖金，工资奖金221101-微信100221</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付社保费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1601.91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应付社保费，应付社保22410103-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>she bao f</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying fu she bao</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付公积金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1702.03</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应付公积金，应付公积金22410104-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying fu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>gong ji j</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ying fu</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>gong ji jin</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付劳务费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1802.15</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应付劳务费，单位22410101-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying fu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>lao wu f</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应交增值税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1902.27</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应交增值税，应交增值税222101-支付宝100211</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying jiao zeng zhi s</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>zhi fu b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应交城建税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2002.39</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应交城建设，应交城市维护建设税222108－现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>cheng jian s</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying jiao cheng shi wei hu jian she shui</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应交教育附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2102.51</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应交教育附加，教育附加税222113-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao yu fu jia</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>jiao yu fu jia shui</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应交地方教育附加</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2202.63</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应交地方教育附加，地方教育费附加222114-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>di fang</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>jiao yu</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>fu j</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>di fang</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>jiao yu</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>fei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>fu jia</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应交个税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2302.75</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应交个税，应交个人所得税222112-支付宝100211</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ge shui</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ge ren</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>suo de s</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>zhi fu b</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应交印花税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2402.87</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应交印花税，应交印花税222118-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>qi ta</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>yin hua s</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>yin hua s</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应交所得税</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2502.99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部代表，应交所得税，应交所得税222106-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>nei bu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>dai b</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>suo de s</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ying jiao</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>suo de s</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>yin hang</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应付账款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2603.11</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他，应付账款，单位220201-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>qi t</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ying fu zhang kuan</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_type0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>record_name1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>income</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，银行到现金，现金100101-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>hu hzuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yin h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，银行到支付宝，支付宝100211-银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>hu z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>yin h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，银行到微信，微信100221－银行100201</t>
+    <rPh sb="0" eb="1">
+      <t>hu z</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>yin h</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yin h</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，支付宝到银行，银行100201-支付宝100211</t>
+    <rPh sb="0" eb="1">
+      <t>hu zh</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>zhi fu</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>bao</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，支付宝到微信，银行100201-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，支付宝到现金，银行100201-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，微信到银行，银行100201－微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，微信到支付宝，支付宝100211-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，微信到现金，现金100101-微信100221</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>wei x</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，现金到银行，银行100201-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>yin hang</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>yin h</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，现金到微信，微信1002210现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>wei x</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>xian j</t>
+    </rPh>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>互转，现金到支付宝，支付宝100211-现金100101</t>
+    <rPh sb="0" eb="1">
+      <t>hu zhuan</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>xian j</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>dao</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zhi fu b</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>xian j</t>
+    </rPh>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -521,6 +1358,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -588,13 +1428,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -874,8 +1717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -886,224 +1729,245 @@
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
     <col min="6" max="6" width="19.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="13.5" customWidth="1"/>
+    <col min="7" max="7" width="69.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>13</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
       <c r="F2" s="5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G2" t="s">
-        <v>88</v>
+        <v>31</v>
       </c>
       <c r="H2" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>41</v>
       </c>
+      <c r="G6" t="s">
+        <v>42</v>
+      </c>
       <c r="H6" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B7" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>43</v>
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
+        <v>48</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>45</v>
+        <v>51</v>
+      </c>
+      <c r="G9" t="s">
+        <v>52</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
@@ -1120,7 +1984,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,506 +1994,561 @@
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="4" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="21" style="7" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>73</v>
+        <v>13</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>74</v>
+        <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>76</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="G2" t="s">
+        <v>60</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>46</v>
+        <v>62</v>
+      </c>
+      <c r="G3" t="s">
+        <v>63</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
       </c>
       <c r="I3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B4" t="s">
+      <c r="G4" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
       </c>
       <c r="I4" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>48</v>
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
       </c>
       <c r="I6" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>75</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>77</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>52</v>
+        <v>80</v>
+      </c>
+      <c r="G9" t="s">
+        <v>81</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>17</v>
+        <v>82</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>53</v>
+        <v>83</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>18</v>
+        <v>85</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>54</v>
+        <v>86</v>
+      </c>
+      <c r="G11" t="s">
+        <v>87</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E12" t="s">
-        <v>19</v>
+        <v>88</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>55</v>
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
       </c>
       <c r="I12" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>92</v>
+      </c>
+      <c r="G13" t="s">
+        <v>93</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
       </c>
       <c r="I13" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>57</v>
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>96</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>58</v>
+        <v>98</v>
+      </c>
+      <c r="G15" t="s">
+        <v>99</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>59</v>
+        <v>101</v>
+      </c>
+      <c r="G16" t="s">
+        <v>102</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
       </c>
       <c r="I16" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>60</v>
+        <v>104</v>
+      </c>
+      <c r="G17" t="s">
+        <v>105</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>2</v>
+        <v>57</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>61</v>
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>108</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="D19" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>62</v>
+        <v>110</v>
+      </c>
+      <c r="G19" t="s">
+        <v>111</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1640,123 +2559,356 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="10.83203125" style="7"/>
+    <col min="6" max="6" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>84</v>
+        <v>20</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>78</v>
+        <v>9</v>
+      </c>
+      <c r="E2" s="8">
+        <v>2703.23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>116</v>
       </c>
       <c r="G2" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>79</v>
+        <v>8</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2803.35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>80</v>
+        <v>7</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2903.47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>115</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>81</v>
+        <v>1</v>
+      </c>
+      <c r="E5" s="8">
+        <v>3003.59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>119</v>
       </c>
       <c r="G5" t="s">
-        <v>77</v>
+        <v>18</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8">
+        <v>3103.71</v>
+      </c>
+      <c r="F6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3203.83</v>
+      </c>
+      <c r="F7" t="s">
+        <v>121</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8">
+        <v>3303.95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>122</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
+      <c r="H8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="8">
+        <v>3404.07</v>
+      </c>
+      <c r="F9" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="8">
+        <v>3504.19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
+      <c r="H10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" s="8">
+        <v>3604.31</v>
+      </c>
+      <c r="F11" t="s">
+        <v>125</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="8">
+        <v>3704.43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>126</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="8">
+        <v>3804.55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/record_transaction_data.xlsx
+++ b/test_data/cai/record_transaction_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记所有类别收入" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="记互转" sheetId="2" r:id="rId3"/>
     <sheet name="201709测试数据－收支" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -1718,7 +1718,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1984,7 +1984,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="F2" sqref="F2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2562,7 +2562,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/test_data/cai/record_transaction_data.xlsx
+++ b/test_data/cai/record_transaction_data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="860" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记所有类别收入" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="102">
   <si>
     <t>记支出</t>
     <rPh sb="0" eb="1">
@@ -269,10 +269,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>100.11</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，利息收入，银行100201-利息费用560301</t>
     <rPh sb="0" eb="1">
       <t>nei bu dai b</t>
@@ -292,10 +288,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>200.23</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，回收借出资金（收入），微信100221-临时借出资金12210101</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -331,10 +323,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>300.35</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，收到临时借入款（收入），支付宝100211-22410101临时借入款</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -370,10 +358,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>400.47</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，收回投资利息（收入），现金100101-投资收益511101</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -400,10 +384,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>500.59</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，收回投资本金（收入），银行100201-151101投资收益</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -436,10 +416,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>600.71</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，收到投资款，微信100221-股东名称300101</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -466,10 +442,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>700.83</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，银行贷款（收入），支付宝100211-200101银行贷款</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -506,10 +478,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>800.95</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，应收账款，现金100101-单位112201</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -553,10 +521,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>901.07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，银行费用，手续费用560302-银行100201</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -595,10 +559,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1001.19</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，临时借出资金，临时借出资金12210101-微信100221</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -622,10 +582,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1101.31</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，归还临时借入，临时借入款22410101-支付宝100211</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -658,10 +614,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1201.43</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，对外投资款，某某公司151101-现金100101</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -688,10 +640,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1301.55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，归还银行贷款，银行贷款200101-银行100201</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -724,10 +672,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1401.67</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，贷款利息，利息费用560301-支付宝100211</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -736,19 +680,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1501.79</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，应付工资奖金，工资奖金221101-微信100221</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>应付社保费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1601.91</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -775,10 +711,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1702.03</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，应付公积金，应付公积金22410104-银行100201</t>
     <rPh sb="0" eb="1">
       <t>nei bu dai b</t>
@@ -805,10 +737,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1802.15</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，应付劳务费，单位22410101-微信100221</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -832,10 +760,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1902.27</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，应交增值税，应交增值税222101-支付宝100211</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -856,10 +780,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2002.39</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，应交城建设，应交城市维护建设税222108－现金100101</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -880,10 +800,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2102.51</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，应交教育附加，教育附加税222113-银行100201</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -910,10 +826,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2202.63</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，应交地方教育附加，地方教育费附加222114-微信100221</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -952,10 +864,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2302.75</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，应交个税，应交个人所得税222112-支付宝100211</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -988,10 +896,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2402.87</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>其他，应交印花税，应交印花税222118-现金100101</t>
     <rPh sb="0" eb="1">
       <t>qi ta</t>
@@ -1018,10 +922,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2502.99</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>内部代表，应交所得税，应交所得税222106-银行100201</t>
     <rPh sb="0" eb="1">
       <t>nei bu</t>
@@ -1048,10 +948,6 @@
   </si>
   <si>
     <t>应付账款</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2603.11</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1428,16 +1324,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1718,7 +1612,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F2" sqref="F2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1778,11 +1672,11 @@
       <c r="E2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="6">
+        <v>100.11</v>
+      </c>
+      <c r="G2" t="s">
         <v>30</v>
-      </c>
-      <c r="G2" t="s">
-        <v>31</v>
       </c>
       <c r="H2" t="s">
         <v>6</v>
@@ -1804,11 +1698,11 @@
       <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>32</v>
+      <c r="F3" s="6">
+        <v>200.23</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3" t="s">
         <v>6</v>
@@ -1828,13 +1722,13 @@
         <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="F4" s="6">
+        <v>300.35000000000002</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -1854,13 +1748,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="F5" s="6">
+        <v>400.47</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -1880,13 +1774,13 @@
         <v>29</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="F6" s="6">
+        <v>500.59</v>
       </c>
       <c r="G6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
         <v>6</v>
@@ -1906,13 +1800,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="F7" s="6">
+        <v>600.71</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H7" t="s">
         <v>6</v>
@@ -1932,13 +1826,13 @@
         <v>29</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="F8" s="6">
+        <v>700.83</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H8" t="s">
         <v>6</v>
@@ -1946,10 +1840,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -1960,11 +1854,11 @@
       <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>51</v>
+      <c r="F9" s="6">
+        <v>800.95</v>
       </c>
       <c r="G9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H9" t="s">
         <v>6</v>
@@ -1984,7 +1878,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1994,7 +1888,7 @@
     <col min="3" max="3" width="17.1640625" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21" style="4" customWidth="1"/>
     <col min="7" max="7" width="57.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
@@ -2002,10 +1896,10 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>11</v>
@@ -2016,7 +1910,7 @@
       <c r="E1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -2031,25 +1925,25 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E2" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>59</v>
+        <v>50</v>
+      </c>
+      <c r="F2" s="6">
+        <v>901.07</v>
       </c>
       <c r="G2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
         <v>0</v>
@@ -2060,10 +1954,10 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -2072,13 +1966,13 @@
         <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>62</v>
+        <v>52</v>
+      </c>
+      <c r="F3" s="6">
+        <v>1001.19</v>
       </c>
       <c r="G3" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="H3" t="s">
         <v>0</v>
@@ -2089,25 +1983,25 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>65</v>
+        <v>54</v>
+      </c>
+      <c r="F4" s="6">
+        <v>1101.31</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="H4" t="s">
         <v>0</v>
@@ -2118,10 +2012,10 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
@@ -2130,13 +2024,13 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>68</v>
+        <v>56</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1201.43</v>
       </c>
       <c r="G5" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="H5" t="s">
         <v>0</v>
@@ -2147,25 +2041,25 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>71</v>
+        <v>58</v>
+      </c>
+      <c r="F6" s="6">
+        <v>1301.55</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>59</v>
       </c>
       <c r="H6" t="s">
         <v>0</v>
@@ -2176,10 +2070,10 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B7" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
@@ -2188,13 +2082,13 @@
         <v>5</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1401.67</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="H7" t="s">
         <v>0</v>
@@ -2205,25 +2099,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="F8" s="6">
+        <v>1501.79</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="H8" t="s">
         <v>0</v>
@@ -2234,10 +2128,10 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>9</v>
@@ -2246,13 +2140,13 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>79</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>80</v>
+        <v>64</v>
+      </c>
+      <c r="F9" s="6">
+        <v>1601.91</v>
       </c>
       <c r="G9" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="H9" t="s">
         <v>0</v>
@@ -2263,25 +2157,25 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>83</v>
+        <v>66</v>
+      </c>
+      <c r="F10" s="6">
+        <v>1702.03</v>
       </c>
       <c r="G10" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="H10" t="s">
         <v>0</v>
@@ -2292,10 +2186,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -2304,13 +2198,13 @@
         <v>5</v>
       </c>
       <c r="E11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
+      </c>
+      <c r="F11" s="6">
+        <v>1802.15</v>
       </c>
       <c r="G11" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
         <v>0</v>
@@ -2321,25 +2215,25 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>88</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>89</v>
+        <v>70</v>
+      </c>
+      <c r="F12" s="6">
+        <v>1902.27</v>
       </c>
       <c r="G12" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
         <v>0</v>
@@ -2350,10 +2244,10 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2362,13 +2256,13 @@
         <v>5</v>
       </c>
       <c r="E13" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>92</v>
+        <v>72</v>
+      </c>
+      <c r="F13" s="6">
+        <v>2002.39</v>
       </c>
       <c r="G13" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="H13" t="s">
         <v>0</v>
@@ -2379,25 +2273,25 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C14" t="s">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>95</v>
+        <v>74</v>
+      </c>
+      <c r="F14" s="6">
+        <v>2102.5100000000002</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
         <v>0</v>
@@ -2408,10 +2302,10 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -2420,13 +2314,13 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>97</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>98</v>
+        <v>76</v>
+      </c>
+      <c r="F15" s="6">
+        <v>2202.63</v>
       </c>
       <c r="G15" t="s">
-        <v>99</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
         <v>0</v>
@@ -2437,25 +2331,25 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E16" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>101</v>
+        <v>78</v>
+      </c>
+      <c r="F16" s="6">
+        <v>2302.75</v>
       </c>
       <c r="G16" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s">
         <v>0</v>
@@ -2466,10 +2360,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
@@ -2478,13 +2372,13 @@
         <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>104</v>
+        <v>80</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2402.87</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="H17" t="s">
         <v>0</v>
@@ -2495,25 +2389,25 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C18" t="s">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="E18" t="s">
-        <v>106</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>107</v>
+        <v>82</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2502.9899999999998</v>
       </c>
       <c r="G18" t="s">
-        <v>108</v>
+        <v>83</v>
       </c>
       <c r="H18" t="s">
         <v>0</v>
@@ -2524,10 +2418,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
@@ -2536,13 +2430,13 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>110</v>
+        <v>84</v>
+      </c>
+      <c r="F19" s="6">
+        <v>2603.11</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="H19" t="s">
         <v>0</v>
@@ -2562,23 +2456,23 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" customWidth="1"/>
     <col min="2" max="2" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="7"/>
+    <col min="5" max="5" width="10.83203125" style="4"/>
     <col min="6" max="6" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>19</v>
@@ -2586,7 +2480,7 @@
       <c r="D1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2601,10 +2495,10 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B2" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -2612,11 +2506,11 @@
       <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="5">
         <v>2703.23</v>
       </c>
       <c r="F2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G2" t="s">
         <v>18</v>
@@ -2627,10 +2521,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -2638,11 +2532,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="5">
         <v>2803.35</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -2653,10 +2547,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
         <v>1</v>
@@ -2664,11 +2558,11 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="5">
         <v>2903.47</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G4" t="s">
         <v>18</v>
@@ -2679,10 +2573,10 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -2690,11 +2584,11 @@
       <c r="D5" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="5">
         <v>3003.59</v>
       </c>
       <c r="F5" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -2705,10 +2599,10 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -2716,11 +2610,11 @@
       <c r="D6" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="5">
         <v>3103.71</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
       <c r="G6" t="s">
         <v>18</v>
@@ -2731,10 +2625,10 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B7" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -2742,11 +2636,11 @@
       <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="5">
         <v>3203.83</v>
       </c>
       <c r="F7" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="G7" t="s">
         <v>18</v>
@@ -2757,10 +2651,10 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -2768,11 +2662,11 @@
       <c r="D8" t="s">
         <v>1</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="5">
         <v>3303.95</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
         <v>18</v>
@@ -2783,10 +2677,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B9" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -2794,11 +2688,11 @@
       <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="5">
         <v>3404.07</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
         <v>18</v>
@@ -2809,10 +2703,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -2820,11 +2714,11 @@
       <c r="D10" t="s">
         <v>9</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="5">
         <v>3504.19</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
         <v>18</v>
@@ -2835,10 +2729,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C11" t="s">
         <v>9</v>
@@ -2846,11 +2740,11 @@
       <c r="D11" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="5">
         <v>3604.31</v>
       </c>
       <c r="F11" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
         <v>18</v>
@@ -2861,10 +2755,10 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C12" t="s">
         <v>9</v>
@@ -2872,11 +2766,11 @@
       <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="5">
         <v>3704.43</v>
       </c>
       <c r="F12" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="G12" t="s">
         <v>18</v>
@@ -2887,10 +2781,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -2898,11 +2792,11 @@
       <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="5">
         <v>3804.55</v>
       </c>
       <c r="F13" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
         <v>18</v>

--- a/test_data/cai/record_transaction_data.xlsx
+++ b/test_data/cai/record_transaction_data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="860" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-320" yWindow="5180" windowWidth="25600" windowHeight="14760" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记所有类别收入" sheetId="1" r:id="rId1"/>
     <sheet name="记所有类别支出" sheetId="3" r:id="rId2"/>
     <sheet name="记互转" sheetId="2" r:id="rId3"/>
     <sheet name="201709测试数据－收支" sheetId="4" r:id="rId4"/>
+    <sheet name="test收入" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150000" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
@@ -1612,7 +1613,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1878,7 +1879,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2456,7 +2457,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2824,4 +2825,17 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test_data/cai/record_transaction_data.xlsx
+++ b/test_data/cai/record_transaction_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/e2e-test/test_data/cai/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14850" tabRatio="743" activeTab="5"/>
+    <workbookView xWindow="-140" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="743" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="记所有类别收入" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,20 @@
     <sheet name="现金流量表--收入" sheetId="5" r:id="rId5"/>
     <sheet name="现金流量表--支出" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="180">
   <si>
     <t>record_type0</t>
   </si>
@@ -63,9 +76,6 @@
     <t>利息收入</t>
   </si>
   <si>
-    <t>100.11</t>
-  </si>
-  <si>
     <t>内部代表，利息收入，银行100201-利息费用560301</t>
   </si>
   <si>
@@ -81,9 +91,6 @@
     <t>回收借出资金(收入)</t>
   </si>
   <si>
-    <t>200.23</t>
-  </si>
-  <si>
     <t>其他，回收借出资金（收入），微信100221-临时借出资金12210101</t>
   </si>
   <si>
@@ -93,9 +100,6 @@
     <t>收到临时借入款(收入)</t>
   </si>
   <si>
-    <t>300.35</t>
-  </si>
-  <si>
     <t>内部代表，收到临时借入款（收入），支付宝100211-22410101临时借入款</t>
   </si>
   <si>
@@ -105,45 +109,30 @@
     <t>收回投资利息(收入)</t>
   </si>
   <si>
-    <t>400.47</t>
-  </si>
-  <si>
     <t>其他，收回投资利息（收入），现金100101-投资收益511101</t>
   </si>
   <si>
     <t>收回投资本金(收入)</t>
   </si>
   <si>
-    <t>500.59</t>
-  </si>
-  <si>
     <t>内部代表，收回投资本金（收入），银行100201-151101投资收益</t>
   </si>
   <si>
     <t>收到投资款</t>
   </si>
   <si>
-    <t>600.71</t>
-  </si>
-  <si>
     <t>其他，收到投资款，微信100221-股东名称300101</t>
   </si>
   <si>
     <t>银行贷款(收入)</t>
   </si>
   <si>
-    <t>700.83</t>
-  </si>
-  <si>
     <t>内部代表，银行贷款（收入），支付宝100211-200101银行贷款</t>
   </si>
   <si>
     <t>应收账款</t>
   </si>
   <si>
-    <t>800.95</t>
-  </si>
-  <si>
     <t>其他，应收账款，现金100101-单位112201</t>
   </si>
   <si>
@@ -156,9 +145,6 @@
     <t>银行费用</t>
   </si>
   <si>
-    <t>901.07</t>
-  </si>
-  <si>
     <t>内部代表，银行费用，手续费用560302-银行100201</t>
   </si>
   <si>
@@ -171,153 +157,102 @@
     <t>临时借出资金</t>
   </si>
   <si>
-    <t>1001.19</t>
-  </si>
-  <si>
     <t>其他，临时借出资金，临时借出资金12210101-微信100221</t>
   </si>
   <si>
     <t>归还临时借入</t>
   </si>
   <si>
-    <t>1101.31</t>
-  </si>
-  <si>
     <t>内部代表，归还临时借入，临时借入款22410101-支付宝100211</t>
   </si>
   <si>
     <t>对外投资款</t>
   </si>
   <si>
-    <t>1201.43</t>
-  </si>
-  <si>
     <t>其他，对外投资款，某某公司151101-现金100101</t>
   </si>
   <si>
     <t>归还银行贷款</t>
   </si>
   <si>
-    <t>1301.55</t>
-  </si>
-  <si>
     <t>内部代表，归还银行贷款，银行贷款200101-银行100201</t>
   </si>
   <si>
     <t>贷款利息</t>
   </si>
   <si>
-    <t>1401.67</t>
-  </si>
-  <si>
     <t>内部代表，贷款利息，利息费用560301-支付宝100211</t>
   </si>
   <si>
     <t>应付工资奖金</t>
   </si>
   <si>
-    <t>1501.79</t>
-  </si>
-  <si>
     <t>其他，应付工资奖金，工资奖金221101-微信100221</t>
   </si>
   <si>
     <t>应付社保费</t>
   </si>
   <si>
-    <t>1601.91</t>
-  </si>
-  <si>
     <t>其他，应付社保费，应付社保22410103-现金100101</t>
   </si>
   <si>
     <t>应付公积金</t>
   </si>
   <si>
-    <t>1702.03</t>
-  </si>
-  <si>
     <t>内部代表，应付公积金，应付公积金22410104-银行100201</t>
   </si>
   <si>
     <t>应付劳务费</t>
   </si>
   <si>
-    <t>1802.15</t>
-  </si>
-  <si>
     <t>其他，应付劳务费，单位22410101-微信100221</t>
   </si>
   <si>
     <t>应交增值税</t>
   </si>
   <si>
-    <t>1902.27</t>
-  </si>
-  <si>
     <t>内部代表，应交增值税，应交增值税222101-支付宝100211</t>
   </si>
   <si>
     <t>应交城建税</t>
   </si>
   <si>
-    <t>2002.39</t>
-  </si>
-  <si>
     <t>其他，应交城建设，应交城市维护建设税222108－现金100101</t>
   </si>
   <si>
     <t>应交教育附加</t>
   </si>
   <si>
-    <t>2102.51</t>
-  </si>
-  <si>
     <t>内部代表，应交教育附加，教育附加税222113-银行100201</t>
   </si>
   <si>
     <t>应交地方教育附加</t>
   </si>
   <si>
-    <t>2202.63</t>
-  </si>
-  <si>
     <t>其他，应交地方教育附加，地方教育费附加222114-微信100221</t>
   </si>
   <si>
     <t>应交个税</t>
   </si>
   <si>
-    <t>2302.75</t>
-  </si>
-  <si>
     <t>内部代表，应交个税，应交个人所得税222112-支付宝100211</t>
   </si>
   <si>
     <t>应交印花税</t>
   </si>
   <si>
-    <t>2402.87</t>
-  </si>
-  <si>
     <t>其他，应交印花税，应交印花税222118-现金100101</t>
   </si>
   <si>
     <t>应交所得税</t>
   </si>
   <si>
-    <t>2502.99</t>
-  </si>
-  <si>
     <t>内部代表，应交所得税，应交所得税222106-银行100201</t>
   </si>
   <si>
     <t>应付账款</t>
   </si>
   <si>
-    <t>2603.11</t>
-  </si>
-  <si>
     <t>其他，应付账款，单位220201-微信100221</t>
   </si>
   <si>
@@ -628,24 +563,55 @@
   </si>
   <si>
     <t>内部代表，贷款利息，利息费用560301-微信100221</t>
+  </si>
+  <si>
+    <t>收入合计＝</t>
+    <rPh sb="0" eb="1">
+      <t>shor uu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>支出合计＝</t>
+    <rPh sb="0" eb="1">
+      <t>zhi chu</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>he j</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>收入／支出合计＝</t>
+    <rPh sb="0" eb="1">
+      <t>sho ru</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>zhi chu</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>he ji</t>
+    </rPh>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -654,6 +620,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -661,155 +628,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,194 +653,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1032,253 +677,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1287,60 +693,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="货币" xfId="1" builtinId="4"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1602,31 +962,32 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="19.8333333333333" style="8" customWidth="1"/>
-    <col min="7" max="7" width="69.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="69.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1003,7 @@
       <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
@@ -1655,7 +1016,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1671,95 +1032,95 @@
       <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="9">
+        <v>100.11</v>
+      </c>
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="9">
+        <v>200.23</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="H3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="F4" s="9">
+        <v>300.35000000000002</v>
+      </c>
+      <c r="G4" t="s">
         <v>22</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="G4" t="s">
+      <c r="F5" s="9">
+        <v>400.47</v>
+      </c>
+      <c r="G5" t="s">
         <v>25</v>
       </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" t="s">
-        <v>29</v>
-      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1773,125 +1134,133 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="9">
+        <v>500.59</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="9">
+        <v>600.71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F8" s="9">
+        <v>700.83</v>
+      </c>
+      <c r="G8" t="s">
         <v>31</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>32</v>
       </c>
-      <c r="H6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="F9" s="9">
+        <v>800.95</v>
+      </c>
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" t="s">
-        <v>41</v>
-      </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="I9" t="s">
+        <v>177</v>
+      </c>
+      <c r="J9" s="7">
+        <f>SUM(F2:F9)</f>
+        <v>3604.24</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I19"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" style="7" customWidth="1"/>
-    <col min="7" max="7" width="57.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1920,12 +1289,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -1934,114 +1303,114 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="8">
+        <v>901.07</v>
+      </c>
+      <c r="G2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="8">
+        <v>1001.19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F4" s="8">
+        <v>1101.31</v>
+      </c>
+      <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F5" s="8">
+        <v>1201.43</v>
+      </c>
+      <c r="G5" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" t="s">
-        <v>57</v>
-      </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2050,114 +1419,114 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="F6" s="8">
+        <v>1301.55</v>
       </c>
       <c r="G6" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>62</v>
+      <c r="F7" s="8">
+        <v>1401.67</v>
       </c>
       <c r="G7" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="F8" s="8">
+        <v>1501.79</v>
       </c>
       <c r="G8" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>68</v>
+        <v>52</v>
+      </c>
+      <c r="F9" s="8">
+        <v>1601.91</v>
       </c>
       <c r="G9" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
@@ -2166,114 +1535,114 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>71</v>
+        <v>54</v>
+      </c>
+      <c r="F10" s="8">
+        <v>1702.03</v>
       </c>
       <c r="G10" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>74</v>
+        <v>56</v>
+      </c>
+      <c r="F11" s="8">
+        <v>1802.15</v>
       </c>
       <c r="G11" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>77</v>
+        <v>58</v>
+      </c>
+      <c r="F12" s="8">
+        <v>1902.27</v>
       </c>
       <c r="G12" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="F13" s="8">
+        <v>2002.39</v>
       </c>
       <c r="G13" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2282,114 +1651,114 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="9" t="s">
-        <v>83</v>
+        <v>62</v>
+      </c>
+      <c r="F14" s="8">
+        <v>2102.5100000000002</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>86</v>
+        <v>64</v>
+      </c>
+      <c r="F15" s="8">
+        <v>2202.63</v>
       </c>
       <c r="G15" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>89</v>
+        <v>66</v>
+      </c>
+      <c r="F16" s="8">
+        <v>2302.75</v>
       </c>
       <c r="G16" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>92</v>
+        <v>68</v>
+      </c>
+      <c r="F17" s="8">
+        <v>2402.87</v>
       </c>
       <c r="G17" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2398,74 +1767,82 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>95</v>
+        <v>70</v>
+      </c>
+      <c r="F18" s="8">
+        <v>2502.9899999999998</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>97</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>98</v>
+        <v>72</v>
+      </c>
+      <c r="F19" s="8">
+        <v>2603.11</v>
       </c>
       <c r="G19" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>39</v>
+      </c>
+      <c r="J19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K19" s="7">
+        <f>SUM(F2:F19)</f>
+        <v>31537.620000000003</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="10.8333333333333" style="7"/>
-    <col min="6" max="6" width="42.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="7"/>
+    <col min="6" max="6" width="42.1640625" customWidth="1"/>
+    <col min="8" max="9" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2473,25 +1850,25 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>104</v>
+        <v>78</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2502,22 +1879,22 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E2" s="7">
         <v>2703.23</v>
       </c>
       <c r="F2" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2528,22 +1905,22 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="7">
         <v>2803.35</v>
       </c>
       <c r="F3" t="s">
-        <v>108</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2554,22 +1931,22 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" s="7">
         <v>2903.47</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2577,7 +1954,7 @@
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
         <v>11</v>
@@ -2586,16 +1963,16 @@
         <v>3003.59</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2603,25 +1980,25 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E6" s="7">
         <v>3103.71</v>
       </c>
       <c r="F6" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2629,25 +2006,25 @@
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E7" s="7">
         <v>3203.83</v>
       </c>
       <c r="F7" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2655,7 +2032,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -2664,16 +2041,16 @@
         <v>3303.95</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2681,25 +2058,25 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E9" s="7">
         <v>3404.07</v>
       </c>
       <c r="F9" t="s">
-        <v>114</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2707,25 +2084,25 @@
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="7">
         <v>3504.19</v>
       </c>
       <c r="F10" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2733,7 +2110,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -2742,16 +2119,16 @@
         <v>3604.31</v>
       </c>
       <c r="F11" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2759,25 +2136,25 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E12" s="7">
         <v>3704.43</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2785,69 +2162,71 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E13" s="7">
         <v>3804.55</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>179</v>
+      </c>
+      <c r="I13" s="7">
+        <f>SUM(E2:E13)</f>
+        <v>39046.68</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView topLeftCell="F16" workbookViewId="0">
       <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="72.625" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="72.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2876,13 +2255,13 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>119</v>
+        <v>93</v>
       </c>
       <c r="K1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" customFormat="1" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2890,32 +2269,32 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F2" s="4">
         <v>100.12</v>
       </c>
       <c r="G2" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="K2">
         <f>SUM(F2:F5)</f>
-        <v>400.88</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
+        <v>400.87999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2926,25 +2305,25 @@
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F3" s="4">
         <v>100.21</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="4" customFormat="1" spans="1:10">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2952,57 +2331,57 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F4" s="4">
         <v>100.22</v>
       </c>
       <c r="G4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="J4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" customFormat="1" spans="1:10">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F5" s="4">
         <v>100.33</v>
       </c>
       <c r="G5" t="s">
-        <v>125</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="6" customFormat="1" spans="1:11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3010,32 +2389,32 @@
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
       </c>
       <c r="F6" s="4">
         <v>200.23</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>127</v>
+        <v>101</v>
       </c>
       <c r="K6">
         <f>SUM(F6:F17)</f>
-        <v>3822.83</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
+        <v>3822.8300000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3046,25 +2425,25 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
         <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>19</v>
       </c>
       <c r="F7" s="4">
         <v>210.3</v>
       </c>
       <c r="G7" t="s">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3072,86 +2451,86 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" t="s">
         <v>18</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
       </c>
       <c r="F8" s="4">
         <v>220.23</v>
       </c>
       <c r="G8" t="s">
-        <v>129</v>
+        <v>103</v>
       </c>
       <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
         <v>16</v>
       </c>
-      <c r="J8" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" customFormat="1" spans="1:10">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
       <c r="D9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
         <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
       </c>
       <c r="F9" s="4">
         <v>230.23</v>
       </c>
       <c r="G9" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="H9" t="s">
-        <v>16</v>
-      </c>
-      <c r="J9" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" customFormat="1" spans="1:10">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" s="4">
-        <v>310.35</v>
+        <v>310.35000000000002</v>
       </c>
       <c r="G10" t="s">
-        <v>130</v>
+        <v>104</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" customFormat="1" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3165,22 +2544,22 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F11" s="4">
-        <v>320.35</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="G11" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3188,57 +2567,57 @@
         <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F12" s="4">
         <v>330.35</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s">
         <v>16</v>
       </c>
-      <c r="J12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" customFormat="1" ht="14" customHeight="1" spans="1:10">
-      <c r="A13" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s">
-        <v>17</v>
-      </c>
       <c r="D13" t="s">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4">
         <v>340.35</v>
       </c>
       <c r="G13" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3246,7 +2625,7 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
@@ -3258,16 +2637,16 @@
         <v>400.11</v>
       </c>
       <c r="G14" t="s">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3287,16 +2666,16 @@
         <v>410.11</v>
       </c>
       <c r="G15" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" t="s">
         <v>15</v>
       </c>
-      <c r="H15" t="s">
-        <v>16</v>
-      </c>
       <c r="J15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3304,7 +2683,7 @@
         <v>10</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
@@ -3316,24 +2695,24 @@
         <v>420.11</v>
       </c>
       <c r="G16" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
-      </c>
-      <c r="J16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" t="s">
-        <v>17</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -3345,16 +2724,16 @@
         <v>430.11</v>
       </c>
       <c r="G17" t="s">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:11">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3362,32 +2741,32 @@
         <v>10</v>
       </c>
       <c r="C18" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" t="s">
         <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>30</v>
       </c>
       <c r="F18" s="4">
         <v>500.59</v>
       </c>
       <c r="G18" t="s">
-        <v>136</v>
+        <v>110</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="K18">
         <f>SUM(F18:F21)</f>
         <v>2002.36</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:10">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3401,22 +2780,22 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F19" s="4">
         <v>500.59</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:10">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3424,57 +2803,57 @@
         <v>10</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F20" s="4">
         <v>500.59</v>
       </c>
       <c r="G20" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C21" t="s">
         <v>16</v>
       </c>
-      <c r="J20" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:10">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C21" t="s">
-        <v>17</v>
-      </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F21" s="4">
         <v>500.59</v>
       </c>
       <c r="G21" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:11">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3482,32 +2861,32 @@
         <v>10</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F22" s="4">
         <v>400.47</v>
       </c>
       <c r="G22" t="s">
-        <v>140</v>
+        <v>114</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" t="s">
-        <v>141</v>
+        <v>115</v>
       </c>
       <c r="K22">
         <f>SUM(F22:F25)</f>
         <v>1601.88</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:10">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3518,25 +2897,25 @@
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F23" s="4">
         <v>400.47</v>
       </c>
       <c r="G23" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:10">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3544,57 +2923,57 @@
         <v>10</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F24" s="4">
         <v>400.47</v>
       </c>
       <c r="G24" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="J24" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" t="s">
         <v>16</v>
       </c>
-      <c r="J24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" customFormat="1" spans="1:10">
-      <c r="A25" t="s">
-        <v>9</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" t="s">
-        <v>17</v>
-      </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F25" s="4">
         <v>400.47</v>
       </c>
       <c r="G25" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="H25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:11">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3602,32 +2981,32 @@
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F26" s="4">
         <v>700.83</v>
       </c>
       <c r="G26" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J26" t="s">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="K26">
         <f>SUM(F26:F29)</f>
         <v>2803.32</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:10">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3641,22 +3020,22 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F27" s="4">
         <v>700.83</v>
       </c>
       <c r="G27" t="s">
-        <v>147</v>
+        <v>121</v>
       </c>
       <c r="H27" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:10">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3664,57 +3043,57 @@
         <v>10</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F28" s="4">
         <v>700.83</v>
       </c>
       <c r="G28" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>9</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
         <v>16</v>
       </c>
-      <c r="J28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:10">
-      <c r="A29" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" t="s">
-        <v>10</v>
-      </c>
-      <c r="C29" t="s">
-        <v>17</v>
-      </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="F29" s="4">
         <v>700.83</v>
       </c>
       <c r="G29" t="s">
-        <v>148</v>
+        <v>122</v>
       </c>
       <c r="H29" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3722,32 +3101,32 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F30" s="4">
         <v>600.71</v>
       </c>
       <c r="G30" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="H30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J30" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="K30">
         <f>SUM(F30:F33)</f>
         <v>2402.84</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:10">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3758,25 +3137,25 @@
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F31" s="4">
         <v>600.71</v>
       </c>
       <c r="G31" t="s">
-        <v>151</v>
+        <v>125</v>
       </c>
       <c r="H31" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J31" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:10">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3784,84 +3163,83 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F32" s="4">
         <v>600.71</v>
       </c>
       <c r="G32" t="s">
-        <v>152</v>
+        <v>126</v>
       </c>
       <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="J32" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
         <v>16</v>
       </c>
-      <c r="J32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="33" customFormat="1" spans="1:10">
-      <c r="A33" t="s">
-        <v>9</v>
-      </c>
-      <c r="B33" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>17</v>
-      </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F33" s="4">
         <v>600.71</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H33" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J33" t="s">
-        <v>150</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="61.5" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3891,183 +3269,183 @@
       </c>
       <c r="J1" s="5"/>
       <c r="K1" s="5" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F2" s="4">
         <v>2613.11</v>
       </c>
       <c r="G2" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J2" t="s">
-        <v>154</v>
+        <v>128</v>
       </c>
       <c r="K2">
         <f>SUM(F2:F5)</f>
         <v>10512.44</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F3" s="4">
         <v>2623.11</v>
       </c>
       <c r="G3" t="s">
-        <v>155</v>
+        <v>129</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F4" s="4">
         <v>2633.11</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>130</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J4" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="F5" s="4">
         <v>2643.11</v>
       </c>
       <c r="G5" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J5" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F6" s="4">
         <v>1511.79</v>
       </c>
       <c r="G6" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I6" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J6" t="s">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="K6">
         <f>SUM(F6:F17)</f>
-        <v>19522.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>19522.919999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -4076,254 +3454,254 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F7" s="4">
         <v>1521.79</v>
       </c>
       <c r="G7" t="s">
-        <v>159</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I7" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F8" s="4">
         <v>1531.79</v>
       </c>
       <c r="G8" t="s">
-        <v>160</v>
+        <v>134</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I8" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J8" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="F9" s="4">
         <v>1541.79</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J9" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F10" s="4">
         <v>1611.91</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F11" s="4">
         <v>1621.91</v>
       </c>
       <c r="G11" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J11" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F12" s="4">
         <v>1631.91</v>
       </c>
       <c r="G12" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I12" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="F13" s="4">
         <v>1641.91</v>
       </c>
       <c r="G13" t="s">
-        <v>163</v>
+        <v>137</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F14" s="4">
         <v>1712.03</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>138</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I14" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J14" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -4332,130 +3710,130 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F15" s="4">
         <v>1722.03</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I15" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J15" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
         <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F16" s="4">
         <v>1732.03</v>
       </c>
       <c r="G16" t="s">
-        <v>165</v>
+        <v>139</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I16" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J16" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="F17" s="4">
         <v>1742.03</v>
       </c>
       <c r="G17" t="s">
-        <v>166</v>
+        <v>140</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I17" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J17" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F18" s="4">
         <v>1902.27</v>
       </c>
       <c r="G18" t="s">
-        <v>167</v>
+        <v>141</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I18" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>142</v>
       </c>
       <c r="K18">
         <f>SUM(F18:F37)</f>
-        <v>42050.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>42050.200000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
@@ -4464,254 +3842,254 @@
         <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F19" s="4">
         <v>1902.27</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>143</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I19" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F20" s="4">
         <v>1902.27</v>
       </c>
       <c r="G20" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I20" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J20" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F21" s="4">
         <v>1902.27</v>
       </c>
       <c r="G21" t="s">
-        <v>170</v>
+        <v>144</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I21" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J21" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F22" s="4">
         <v>2002.39</v>
       </c>
       <c r="G22" t="s">
-        <v>171</v>
+        <v>145</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I22" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J22" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
       </c>
       <c r="D23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F23" s="4">
         <v>2002.39</v>
       </c>
       <c r="G23" t="s">
-        <v>172</v>
+        <v>146</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I23" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J23" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F24" s="4">
         <v>2002.39</v>
       </c>
       <c r="G24" t="s">
-        <v>173</v>
+        <v>147</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J24" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="F25" s="4">
         <v>2002.39</v>
       </c>
       <c r="G25" t="s">
-        <v>174</v>
+        <v>148</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I25" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J25" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F26" s="4">
-        <v>2102.51</v>
+        <v>2102.5100000000002</v>
       </c>
       <c r="G26" t="s">
-        <v>175</v>
+        <v>149</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J26" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -4720,254 +4098,254 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F27" s="4">
-        <v>2102.51</v>
+        <v>2102.5100000000002</v>
       </c>
       <c r="G27" t="s">
-        <v>84</v>
+        <v>63</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J27" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B28" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C28" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F28" s="4">
-        <v>2102.51</v>
+        <v>2102.5100000000002</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J28" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="F29" s="4">
-        <v>2102.51</v>
+        <v>2102.5100000000002</v>
       </c>
       <c r="G29" t="s">
-        <v>177</v>
+        <v>151</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I29" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J29" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F30" s="4">
         <v>2202.63</v>
       </c>
       <c r="G30" t="s">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I30" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J30" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
       </c>
       <c r="D31" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F31" s="4">
         <v>2202.63</v>
       </c>
       <c r="G31" t="s">
-        <v>179</v>
+        <v>153</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I31" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J31" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B32" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F32" s="4">
         <v>2202.63</v>
       </c>
       <c r="G32" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I32" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J32" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E33" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F33" s="4">
         <v>2202.63</v>
       </c>
       <c r="G33" t="s">
-        <v>87</v>
+        <v>65</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I33" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J33" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D34" t="s">
         <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F34" s="4">
         <v>2302.75</v>
       </c>
       <c r="G34" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I34" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J34" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
@@ -4976,258 +4354,258 @@
         <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F35" s="4">
         <v>2302.75</v>
       </c>
       <c r="G35" t="s">
-        <v>182</v>
+        <v>156</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I35" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J35" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D36" t="s">
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F36" s="4">
         <v>2302.75</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I36" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J36" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D37" t="s">
         <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="F37" s="4">
         <v>2302.75</v>
       </c>
       <c r="G37" t="s">
-        <v>183</v>
+        <v>157</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I37" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B38" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E38" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F38" s="4">
         <v>1001.19</v>
       </c>
       <c r="G38" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I38" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J38" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
       <c r="K38">
         <f>SUM(F38:F45)</f>
-        <v>8410</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>8409.9999999999982</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E39" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F39" s="4">
         <v>1001.19</v>
       </c>
       <c r="G39" t="s">
-        <v>186</v>
+        <v>160</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I39" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J39" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E40" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F40" s="4">
         <v>1001.19</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
+        <v>161</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I40" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J40" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B41" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="F41" s="4">
         <v>1001.19</v>
       </c>
       <c r="G41" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I41" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J41" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" t="s">
+        <v>35</v>
+      </c>
+      <c r="C42" t="s">
+        <v>23</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
         <v>42</v>
-      </c>
-      <c r="B42" t="s">
-        <v>43</v>
-      </c>
-      <c r="C42" t="s">
-        <v>26</v>
-      </c>
-      <c r="D42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E42" t="s">
-        <v>52</v>
       </c>
       <c r="F42" s="4">
         <v>1101.31</v>
       </c>
       <c r="G42" t="s">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I42" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J42" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C43" t="s">
         <v>11</v>
@@ -5236,262 +4614,262 @@
         <v>12</v>
       </c>
       <c r="E43" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F43" s="4">
         <v>1101.31</v>
       </c>
       <c r="G43" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I43" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J43" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>35</v>
+      </c>
+      <c r="C44" t="s">
+        <v>20</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+      <c r="E44" t="s">
         <v>42</v>
-      </c>
-      <c r="B44" t="s">
-        <v>43</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44" t="s">
-        <v>12</v>
-      </c>
-      <c r="E44" t="s">
-        <v>52</v>
       </c>
       <c r="F44" s="4">
         <v>1101.31</v>
       </c>
       <c r="G44" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I44" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J44" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>35</v>
+      </c>
+      <c r="C45" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s">
+        <v>12</v>
+      </c>
+      <c r="E45" t="s">
         <v>42</v>
-      </c>
-      <c r="B45" t="s">
-        <v>43</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s">
-        <v>12</v>
-      </c>
-      <c r="E45" t="s">
-        <v>52</v>
       </c>
       <c r="F45" s="4">
         <v>1101.31</v>
       </c>
       <c r="G45" t="s">
-        <v>190</v>
+        <v>164</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I45" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J45" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B46" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F46" s="4">
         <v>1201.43</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I46" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
+        <v>165</v>
       </c>
       <c r="K46">
         <f>SUM(F46:F49)</f>
         <v>4805.72</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F47" s="4">
         <v>1201.43</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>166</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I47" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B48" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F48" s="4">
         <v>1201.43</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>167</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I48" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F49" s="4">
         <v>1201.43</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>168</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I49" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J49" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C50" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
         <v>12</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F50" s="4">
         <v>1301.55</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I50" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J50" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="K50">
         <f>SUM(F50:F53)</f>
         <v>5206.2</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C51" t="s">
         <v>11</v>
@@ -5500,222 +4878,222 @@
         <v>12</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F51" s="4">
         <v>1301.55</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I51" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J51" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C52" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D52" t="s">
         <v>12</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F52" s="4">
         <v>1301.55</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>171</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I52" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J52" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
         <v>12</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="F53" s="4">
         <v>1301.55</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I53" t="s">
+        <v>39</v>
+      </c>
+      <c r="J53" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>34</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" t="s">
         <v>48</v>
-      </c>
-      <c r="J53" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11">
-      <c r="A54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" t="s">
-        <v>26</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" t="s">
-        <v>61</v>
       </c>
       <c r="F54" s="4">
         <v>1401.67</v>
       </c>
       <c r="G54" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J54" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="K54">
         <f>SUM(F54:F57)</f>
         <v>5606.68</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="B55" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C55" t="s">
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="F55" s="4">
         <v>1401.67</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I55" t="s">
+        <v>39</v>
+      </c>
+      <c r="J55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>34</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56" t="s">
+        <v>20</v>
+      </c>
+      <c r="D56" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" t="s">
         <v>48</v>
-      </c>
-      <c r="J55" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
-      <c r="A56" t="s">
-        <v>42</v>
-      </c>
-      <c r="B56" t="s">
-        <v>43</v>
-      </c>
-      <c r="C56" t="s">
-        <v>22</v>
-      </c>
-      <c r="D56" t="s">
-        <v>18</v>
-      </c>
-      <c r="E56" t="s">
-        <v>61</v>
       </c>
       <c r="F56" s="4">
         <v>1401.67</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I56" t="s">
+        <v>39</v>
+      </c>
+      <c r="J56" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>34</v>
+      </c>
+      <c r="B57" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" t="s">
         <v>48</v>
-      </c>
-      <c r="J56" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
-      <c r="A57" t="s">
-        <v>42</v>
-      </c>
-      <c r="B57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C57" t="s">
-        <v>17</v>
-      </c>
-      <c r="D57" t="s">
-        <v>18</v>
-      </c>
-      <c r="E57" t="s">
-        <v>61</v>
       </c>
       <c r="F57" s="4">
         <v>1401.67</v>
       </c>
       <c r="G57" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I57" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="J57" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/test_data/cai/record_transaction_data.xlsx
+++ b/test_data/cai/record_transaction_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="14850" tabRatio="743" activeTab="5"/>
+    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="743" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="记所有类别收入" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
   <si>
     <t>record_type0</t>
   </si>
@@ -592,6 +592,15 @@
   </si>
   <si>
     <t>内部代表，归还临时借入，临时借入款22410101-微信100221</t>
+  </si>
+  <si>
+    <t>内部代表，银行费用，手续费用560302-现金100101</t>
+  </si>
+  <si>
+    <t>内部代表，银行费用，手续费用560302-支付宝100211</t>
+  </si>
+  <si>
+    <t>内部代表，银行费用，手续费用560302-微信100221</t>
   </si>
   <si>
     <t>行次11</t>
@@ -1875,7 +1884,7 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I19"/>
+      <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2830,8 +2839,8 @@
   <sheetPr/>
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -3843,10 +3852,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K57"/>
+  <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView topLeftCell="E40" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -5090,8 +5099,8 @@
         <v>185</v>
       </c>
       <c r="K38">
-        <f>SUM(F38:F45)</f>
-        <v>8410</v>
+        <f>SUM(F38:F49)</f>
+        <v>12014.28</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -5318,7 +5327,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="1:11">
+    <row r="46" customFormat="1" spans="1:10">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -5329,16 +5338,16 @@
         <v>26</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F46" s="4">
-        <v>1201.43</v>
+        <v>901.07</v>
       </c>
       <c r="G46" t="s">
-        <v>57</v>
+        <v>191</v>
       </c>
       <c r="H46" t="s">
         <v>47</v>
@@ -5347,14 +5356,10 @@
         <v>48</v>
       </c>
       <c r="J46" t="s">
-        <v>191</v>
-      </c>
-      <c r="K46">
-        <f>SUM(F46:F49)</f>
-        <v>4805.72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:10">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -5365,16 +5370,16 @@
         <v>11</v>
       </c>
       <c r="D47" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F47" s="4">
-        <v>1201.43</v>
+        <v>901.07</v>
       </c>
       <c r="G47" t="s">
-        <v>192</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
         <v>47</v>
@@ -5383,10 +5388,10 @@
         <v>48</v>
       </c>
       <c r="J47" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:10">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -5397,16 +5402,16 @@
         <v>22</v>
       </c>
       <c r="D48" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E48" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F48" s="4">
-        <v>1201.43</v>
+        <v>901.07</v>
       </c>
       <c r="G48" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H48" t="s">
         <v>47</v>
@@ -5415,10 +5420,10 @@
         <v>48</v>
       </c>
       <c r="J48" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="49" customFormat="1" spans="1:10">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -5429,16 +5434,16 @@
         <v>17</v>
       </c>
       <c r="D49" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F49" s="4">
-        <v>1201.43</v>
+        <v>901.07</v>
       </c>
       <c r="G49" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H49" t="s">
         <v>47</v>
@@ -5447,7 +5452,7 @@
         <v>48</v>
       </c>
       <c r="J49" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -5461,16 +5466,16 @@
         <v>26</v>
       </c>
       <c r="D50" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E50" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F50" s="4">
-        <v>1301.55</v>
+        <v>1201.43</v>
       </c>
       <c r="G50" t="s">
-        <v>195</v>
+        <v>57</v>
       </c>
       <c r="H50" t="s">
         <v>47</v>
@@ -5479,11 +5484,11 @@
         <v>48</v>
       </c>
       <c r="J50" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K50">
         <f>SUM(F50:F53)</f>
-        <v>5206.2</v>
+        <v>4805.72</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -5497,16 +5502,16 @@
         <v>11</v>
       </c>
       <c r="D51" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E51" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F51" s="4">
-        <v>1301.55</v>
+        <v>1201.43</v>
       </c>
       <c r="G51" t="s">
-        <v>60</v>
+        <v>195</v>
       </c>
       <c r="H51" t="s">
         <v>47</v>
@@ -5515,7 +5520,7 @@
         <v>48</v>
       </c>
       <c r="J51" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -5529,16 +5534,16 @@
         <v>22</v>
       </c>
       <c r="D52" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F52" s="4">
-        <v>1301.55</v>
+        <v>1201.43</v>
       </c>
       <c r="G52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="H52" t="s">
         <v>47</v>
@@ -5547,7 +5552,7 @@
         <v>48</v>
       </c>
       <c r="J52" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -5561,16 +5566,16 @@
         <v>17</v>
       </c>
       <c r="D53" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F53" s="4">
-        <v>1301.55</v>
+        <v>1201.43</v>
       </c>
       <c r="G53" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H53" t="s">
         <v>47</v>
@@ -5579,7 +5584,7 @@
         <v>48</v>
       </c>
       <c r="J53" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -5593,29 +5598,29 @@
         <v>26</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E54" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F54" s="4">
-        <v>1401.67</v>
+        <v>1301.55</v>
       </c>
       <c r="G54" t="s">
+        <v>198</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>48</v>
+      </c>
+      <c r="J54" t="s">
         <v>199</v>
-      </c>
-      <c r="H54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" t="s">
-        <v>48</v>
-      </c>
-      <c r="J54" t="s">
-        <v>200</v>
       </c>
       <c r="K54">
         <f>SUM(F54:F57)</f>
-        <v>5606.68</v>
+        <v>5206.2</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -5629,16 +5634,16 @@
         <v>11</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F55" s="4">
-        <v>1401.67</v>
+        <v>1301.55</v>
       </c>
       <c r="G55" t="s">
-        <v>201</v>
+        <v>60</v>
       </c>
       <c r="H55" t="s">
         <v>47</v>
@@ -5647,7 +5652,7 @@
         <v>48</v>
       </c>
       <c r="J55" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -5661,16 +5666,16 @@
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F56" s="4">
-        <v>1401.67</v>
+        <v>1301.55</v>
       </c>
       <c r="G56" t="s">
-        <v>63</v>
+        <v>200</v>
       </c>
       <c r="H56" t="s">
         <v>47</v>
@@ -5679,7 +5684,7 @@
         <v>48</v>
       </c>
       <c r="J56" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -5693,25 +5698,157 @@
         <v>17</v>
       </c>
       <c r="D57" t="s">
+        <v>12</v>
+      </c>
+      <c r="E57" t="s">
+        <v>58</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1301.55</v>
+      </c>
+      <c r="G57" t="s">
+        <v>201</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>48</v>
+      </c>
+      <c r="J57" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>42</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" t="s">
+        <v>26</v>
+      </c>
+      <c r="D58" t="s">
         <v>18</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>61</v>
       </c>
-      <c r="F57" s="4">
+      <c r="F58" s="4">
         <v>1401.67</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G58" t="s">
         <v>202</v>
       </c>
-      <c r="H57" t="s">
-        <v>47</v>
-      </c>
-      <c r="I57" t="s">
-        <v>48</v>
-      </c>
-      <c r="J57" t="s">
-        <v>200</v>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>48</v>
+      </c>
+      <c r="J58" t="s">
+        <v>203</v>
+      </c>
+      <c r="K58">
+        <f>SUM(F58:F61)</f>
+        <v>5606.68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" t="s">
+        <v>42</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>61</v>
+      </c>
+      <c r="F59" s="4">
+        <v>1401.67</v>
+      </c>
+      <c r="G59" t="s">
+        <v>204</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>48</v>
+      </c>
+      <c r="J59" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60" t="s">
+        <v>22</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F60" s="4">
+        <v>1401.67</v>
+      </c>
+      <c r="G60" t="s">
+        <v>63</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>48</v>
+      </c>
+      <c r="J60" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" t="s">
+        <v>42</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>61</v>
+      </c>
+      <c r="F61" s="4">
+        <v>1401.67</v>
+      </c>
+      <c r="G61" t="s">
+        <v>205</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>48</v>
+      </c>
+      <c r="J61" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/cai/record_transaction_data.xlsx
+++ b/test_data/cai/record_transaction_data.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27815"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangcaiyan/work/e2e-test/test_data/cai/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="19770" windowHeight="8370" tabRatio="743" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760" tabRatio="743"/>
   </bookViews>
   <sheets>
     <sheet name="记所有类别收入" sheetId="1" r:id="rId1"/>
@@ -14,12 +19,20 @@
     <sheet name="现金流量表--收入" sheetId="5" r:id="rId5"/>
     <sheet name="现金流量表--支出" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="150001" calcOnSave="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="218">
   <si>
     <t>record_type0</t>
   </si>
@@ -637,24 +650,69 @@
   </si>
   <si>
     <t>内部代表，贷款利息，利息费用560301-微信100221</t>
+  </si>
+  <si>
+    <t>2703.23</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2803.35</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2903.47</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3003.59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3103.71</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3203.83</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3303.95</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3404.07</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3504.19</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3604.31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3704.43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3804.55</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -667,158 +725,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="DengXian"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -831,194 +745,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -1041,253 +769,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1297,59 +783,12 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1611,31 +1050,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
-    <col min="3" max="3" width="15.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
     <col min="5" max="5" width="28" customWidth="1"/>
-    <col min="6" max="6" width="19.8333333333333" style="8" customWidth="1"/>
-    <col min="7" max="7" width="69.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="8" customWidth="1"/>
+    <col min="7" max="7" width="69.1640625" customWidth="1"/>
     <col min="8" max="8" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1664,7 +1103,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1690,7 +1129,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1716,7 +1155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1742,7 +1181,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1768,7 +1207,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -1794,7 +1233,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1820,7 +1259,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1846,7 +1285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -1873,34 +1312,33 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.8333333333333" customWidth="1"/>
+    <col min="1" max="1" width="15.83203125" customWidth="1"/>
     <col min="2" max="2" width="17" customWidth="1"/>
-    <col min="3" max="3" width="17.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="12.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="18.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="17.1640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
     <col min="6" max="6" width="21" style="7" customWidth="1"/>
-    <col min="7" max="7" width="57.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="57.33203125" customWidth="1"/>
     <col min="8" max="8" width="10.5" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1929,7 +1367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -1958,7 +1396,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -1987,7 +1425,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -2016,7 +1454,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -2045,7 +1483,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -2074,7 +1512,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -2103,7 +1541,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2132,7 +1570,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2161,7 +1599,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2190,7 +1628,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2219,7 +1657,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2248,7 +1686,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2277,7 +1715,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2306,7 +1744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2335,7 +1773,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2364,7 +1802,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2393,7 +1831,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2422,7 +1860,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2452,29 +1890,28 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.1666666666667" customWidth="1"/>
-    <col min="2" max="2" width="17.8333333333333" customWidth="1"/>
-    <col min="5" max="5" width="10.8333333333333" style="7"/>
-    <col min="6" max="6" width="42.1666666666667" customWidth="1"/>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="8"/>
+    <col min="6" max="6" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2487,7 +1924,7 @@
       <c r="D1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>102</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -2500,7 +1937,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2513,8 +1950,8 @@
       <c r="D2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="7">
-        <v>2703.23</v>
+      <c r="E2" s="9" t="s">
+        <v>206</v>
       </c>
       <c r="F2" t="s">
         <v>106</v>
@@ -2526,7 +1963,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2539,8 +1976,8 @@
       <c r="D3" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7">
-        <v>2803.35</v>
+      <c r="E3" s="9" t="s">
+        <v>207</v>
       </c>
       <c r="F3" t="s">
         <v>108</v>
@@ -2552,7 +1989,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2565,8 +2002,8 @@
       <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="7">
-        <v>2903.47</v>
+      <c r="E4" s="9" t="s">
+        <v>208</v>
       </c>
       <c r="F4" t="s">
         <v>109</v>
@@ -2578,7 +2015,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -2591,8 +2028,8 @@
       <c r="D5" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="7">
-        <v>3003.59</v>
+      <c r="E5" s="9" t="s">
+        <v>209</v>
       </c>
       <c r="F5" t="s">
         <v>110</v>
@@ -2604,7 +2041,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2617,8 +2054,8 @@
       <c r="D6" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="7">
-        <v>3103.71</v>
+      <c r="E6" s="9" t="s">
+        <v>210</v>
       </c>
       <c r="F6" t="s">
         <v>111</v>
@@ -2630,7 +2067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2643,8 +2080,8 @@
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7">
-        <v>3203.83</v>
+      <c r="E7" s="9" t="s">
+        <v>211</v>
       </c>
       <c r="F7" t="s">
         <v>112</v>
@@ -2656,7 +2093,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -2669,8 +2106,8 @@
       <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="7">
-        <v>3303.95</v>
+      <c r="E8" s="9" t="s">
+        <v>212</v>
       </c>
       <c r="F8" t="s">
         <v>113</v>
@@ -2682,7 +2119,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -2695,8 +2132,8 @@
       <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="7">
-        <v>3404.07</v>
+      <c r="E9" s="9" t="s">
+        <v>213</v>
       </c>
       <c r="F9" t="s">
         <v>114</v>
@@ -2708,7 +2145,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2721,8 +2158,8 @@
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="7">
-        <v>3504.19</v>
+      <c r="E10" s="9" t="s">
+        <v>214</v>
       </c>
       <c r="F10" t="s">
         <v>115</v>
@@ -2734,7 +2171,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -2747,8 +2184,8 @@
       <c r="D11" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="7">
-        <v>3604.31</v>
+      <c r="E11" s="9" t="s">
+        <v>215</v>
       </c>
       <c r="F11" t="s">
         <v>116</v>
@@ -2760,7 +2197,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2773,8 +2210,8 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="7">
-        <v>3704.43</v>
+      <c r="E12" s="9" t="s">
+        <v>216</v>
       </c>
       <c r="F12" t="s">
         <v>117</v>
@@ -2786,7 +2223,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -2799,8 +2236,8 @@
       <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="7">
-        <v>3804.55</v>
+      <c r="E13" s="9" t="s">
+        <v>217</v>
       </c>
       <c r="F13" t="s">
         <v>118</v>
@@ -2813,50 +2250,48 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" workbookViewId="0">
+    <sheetView topLeftCell="F19" workbookViewId="0">
       <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="8.5" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="21.875" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
-    <col min="7" max="7" width="72.625" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
+    <col min="7" max="7" width="72.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="6.5" customWidth="1"/>
-    <col min="11" max="11" width="15.25" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2891,7 +2326,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" customFormat="1" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -2921,10 +2356,10 @@
       </c>
       <c r="K2">
         <f>SUM(F2:F5)</f>
-        <v>400.88</v>
-      </c>
-    </row>
-    <row r="3" customFormat="1" spans="1:10">
+        <v>400.87999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -2953,7 +2388,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" customFormat="1" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -2982,7 +2417,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="5" customFormat="1" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -3011,7 +2446,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" customFormat="1" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -3041,10 +2476,10 @@
       </c>
       <c r="K6">
         <f>SUM(F6:F17)</f>
-        <v>3822.83</v>
-      </c>
-    </row>
-    <row r="7" customFormat="1" spans="1:10">
+        <v>3822.8300000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3073,7 +2508,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -3102,7 +2537,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -3131,7 +2566,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" customFormat="1" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -3148,7 +2583,7 @@
         <v>23</v>
       </c>
       <c r="F10" s="4">
-        <v>310.35</v>
+        <v>310.35000000000002</v>
       </c>
       <c r="G10" t="s">
         <v>130</v>
@@ -3160,7 +2595,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="11" customFormat="1" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -3177,7 +2612,7 @@
         <v>23</v>
       </c>
       <c r="F11" s="4">
-        <v>320.35</v>
+        <v>320.35000000000002</v>
       </c>
       <c r="G11" t="s">
         <v>131</v>
@@ -3189,7 +2624,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="12" customFormat="1" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3218,7 +2653,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="13" customFormat="1" ht="14" customHeight="1" spans="1:10">
+    <row r="13" spans="1:11" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>9</v>
       </c>
@@ -3247,7 +2682,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>9</v>
       </c>
@@ -3276,7 +2711,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -3305,7 +2740,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>9</v>
       </c>
@@ -3334,7 +2769,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -3363,7 +2798,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" customFormat="1" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -3396,7 +2831,7 @@
         <v>2002.36</v>
       </c>
     </row>
-    <row r="19" customFormat="1" spans="1:10">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -3425,7 +2860,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="20" customFormat="1" spans="1:10">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -3454,7 +2889,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:10">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -3483,7 +2918,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="22" customFormat="1" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -3516,7 +2951,7 @@
         <v>1601.88</v>
       </c>
     </row>
-    <row r="23" customFormat="1" spans="1:10">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -3545,7 +2980,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="24" customFormat="1" spans="1:10">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -3574,7 +3009,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:10">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -3603,7 +3038,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="26" customFormat="1" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -3636,7 +3071,7 @@
         <v>2803.32</v>
       </c>
     </row>
-    <row r="27" customFormat="1" spans="1:10">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -3665,7 +3100,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" customFormat="1" spans="1:10">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -3694,7 +3129,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="29" customFormat="1" spans="1:10">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -3723,7 +3158,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="30" customFormat="1" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -3756,7 +3191,7 @@
         <v>2402.84</v>
       </c>
     </row>
-    <row r="31" customFormat="1" spans="1:10">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -3785,7 +3220,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" customFormat="1" spans="1:10">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -3814,7 +3249,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="33" customFormat="1" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -3844,33 +3279,32 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView topLeftCell="E40" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="4" max="4" width="12.875" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" customWidth="1"/>
+    <col min="5" max="5" width="18.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
     <col min="7" max="7" width="61.5" customWidth="1"/>
-    <col min="8" max="8" width="10.625" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3903,7 +3337,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>42</v>
       </c>
@@ -3939,7 +3373,7 @@
         <v>10512.44</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>42</v>
       </c>
@@ -3971,7 +3405,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -4003,7 +3437,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>42</v>
       </c>
@@ -4035,7 +3469,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>42</v>
       </c>
@@ -4068,10 +3502,10 @@
       </c>
       <c r="K6">
         <f>SUM(F6:F17)</f>
-        <v>19522.92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>19522.919999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>42</v>
       </c>
@@ -4103,7 +3537,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -4135,7 +3569,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -4167,7 +3601,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -4199,7 +3633,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -4231,7 +3665,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -4263,7 +3697,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -4295,7 +3729,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -4327,7 +3761,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -4359,7 +3793,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -4391,7 +3825,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -4423,7 +3857,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -4456,10 +3890,10 @@
       </c>
       <c r="K18">
         <f>SUM(F18:F37)</f>
-        <v>42050.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>42050.200000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -4491,7 +3925,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -4523,7 +3957,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -4555,7 +3989,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -4587,7 +4021,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -4619,7 +4053,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -4651,7 +4085,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -4683,7 +4117,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -4700,7 +4134,7 @@
         <v>82</v>
       </c>
       <c r="F26" s="4">
-        <v>2102.51</v>
+        <v>2102.5100000000002</v>
       </c>
       <c r="G26" t="s">
         <v>175</v>
@@ -4715,7 +4149,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -4732,7 +4166,7 @@
         <v>82</v>
       </c>
       <c r="F27" s="4">
-        <v>2102.51</v>
+        <v>2102.5100000000002</v>
       </c>
       <c r="G27" t="s">
         <v>84</v>
@@ -4747,7 +4181,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -4764,7 +4198,7 @@
         <v>82</v>
       </c>
       <c r="F28" s="4">
-        <v>2102.51</v>
+        <v>2102.5100000000002</v>
       </c>
       <c r="G28" t="s">
         <v>176</v>
@@ -4779,7 +4213,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -4796,7 +4230,7 @@
         <v>82</v>
       </c>
       <c r="F29" s="4">
-        <v>2102.51</v>
+        <v>2102.5100000000002</v>
       </c>
       <c r="G29" t="s">
         <v>177</v>
@@ -4811,7 +4245,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -4843,7 +4277,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -4875,7 +4309,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -4907,7 +4341,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -4939,7 +4373,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -4971,7 +4405,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -5003,7 +4437,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>42</v>
       </c>
@@ -5035,7 +4469,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>42</v>
       </c>
@@ -5067,7 +4501,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -5100,10 +4534,10 @@
       </c>
       <c r="K38">
         <f>SUM(F38:F49)</f>
-        <v>12014.28</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10">
+        <v>12014.279999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>42</v>
       </c>
@@ -5135,7 +4569,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>42</v>
       </c>
@@ -5167,7 +4601,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>42</v>
       </c>
@@ -5199,7 +4633,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -5231,7 +4665,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -5263,7 +4697,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -5295,7 +4729,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -5327,7 +4761,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="1:10">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -5359,7 +4793,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:10">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -5391,7 +4825,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="48" customFormat="1" spans="1:10">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -5423,7 +4857,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="1:10">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>42</v>
       </c>
@@ -5455,7 +4889,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="50" spans="1:11">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>42</v>
       </c>
@@ -5491,7 +4925,7 @@
         <v>4805.72</v>
       </c>
     </row>
-    <row r="51" spans="1:10">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>42</v>
       </c>
@@ -5523,7 +4957,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>42</v>
       </c>
@@ -5555,7 +4989,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>42</v>
       </c>
@@ -5587,7 +5021,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="54" spans="1:11">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>42</v>
       </c>
@@ -5623,7 +5057,7 @@
         <v>5206.2</v>
       </c>
     </row>
-    <row r="55" spans="1:10">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>42</v>
       </c>
@@ -5655,7 +5089,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:10">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>42</v>
       </c>
@@ -5687,7 +5121,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:10">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>42</v>
       </c>
@@ -5719,7 +5153,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:11">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>42</v>
       </c>
@@ -5755,7 +5189,7 @@
         <v>5606.68</v>
       </c>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -5787,7 +5221,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -5819,7 +5253,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -5852,7 +5286,7 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>